--- a/data/donnees_SALAMA_2023-07-21.xlsx
+++ b/data/donnees_SALAMA_2023-07-21.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I159"/>
+  <dimension ref="A1:I160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-3290900.03</v>
+        <v>-3215400.03</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>72799.99000000001</v>
@@ -567,7 +567,7 @@
         <v>2728400</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>339999.96</v>
+        <v>415499.96</v>
       </c>
     </row>
     <row r="4">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-115200</v>
+        <v>1240345.93</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>-58.8</v>
@@ -742,7 +742,7 @@
         <v>4285647.65</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>4170327.61</v>
+        <v>5525873.54</v>
       </c>
     </row>
     <row r="9">
@@ -1007,7 +1007,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-160400.01</v>
+        <v>-160360.01</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>103215</v>
@@ -1022,7 +1022,7 @@
         <v>441359.25</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>441482.43</v>
+        <v>441522.43</v>
       </c>
     </row>
     <row r="17">
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>4581333.43</v>
+        <v>5389585.43</v>
       </c>
       <c r="E33" s="2" t="n">
         <v>634210</v>
@@ -1617,7 +1617,7 @@
         <v>15045600.64</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>20261144.07</v>
+        <v>21069396.07</v>
       </c>
     </row>
     <row r="34">
@@ -2582,7 +2582,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>-798800</v>
+        <v>-60</v>
       </c>
       <c r="E61" s="2" t="n">
         <v>0</v>
@@ -2597,7 +2597,7 @@
         <v>20</v>
       </c>
       <c r="I61" s="2" t="n">
-        <v>-798740</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -3075,7 +3075,7 @@
         <v>0</v>
       </c>
       <c r="E75" s="2" t="n">
-        <v>4192000</v>
+        <v>3192000</v>
       </c>
       <c r="F75" s="2" t="n">
         <v>0</v>
@@ -3087,7 +3087,7 @@
         <v>20</v>
       </c>
       <c r="I75" s="2" t="n">
-        <v>4192020</v>
+        <v>3192020</v>
       </c>
     </row>
     <row r="76">
@@ -6028,6 +6028,41 @@
       </c>
       <c r="I159" s="2" t="n">
         <v>-0.01</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="inlineStr">
+        <is>
+          <t>Client</t>
+        </is>
+      </c>
+      <c r="B160" s="2" t="inlineStr">
+        <is>
+          <t>CL220266</t>
+        </is>
+      </c>
+      <c r="C160" s="2" t="inlineStr">
+        <is>
+          <t>ASCHICH TSARALALANA -A0040</t>
+        </is>
+      </c>
+      <c r="D160" s="2" t="n">
+        <v>4469400</v>
+      </c>
+      <c r="E160" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F160" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G160" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H160" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" s="2" t="n">
+        <v>4469400</v>
       </c>
     </row>
   </sheetData>
